--- a/sources/case/LeaveRequest.xlsx
+++ b/sources/case/LeaveRequest.xlsx
@@ -5,18 +5,18 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\丹\考勤\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="645" yWindow="540" windowWidth="24960" windowHeight="13440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="645" yWindow="465" windowWidth="24960" windowHeight="13440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Params" sheetId="2" r:id="rId2"/>
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="82">
   <si>
     <t>API</t>
   </si>
@@ -91,12 +91,6 @@
     <t>approval_create</t>
   </si>
   <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -213,19 +207,98 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${Auth.user_id}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${Auth.tenant_id}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>考勤需要</t>
+  </si>
+  <si>
+    <t>LeaveRequest_1</t>
+  </si>
+  <si>
+    <t>年假</t>
+  </si>
+  <si>
+    <t>病假</t>
+  </si>
+  <si>
+    <t>调休</t>
+  </si>
+  <si>
+    <t>LeaveRequest_2</t>
+  </si>
+  <si>
+    <t>LeaveRequest_3</t>
+  </si>
+  <si>
+    <t>LeaveRequest_4</t>
+  </si>
+  <si>
+    <t>LeaveRequest_5</t>
+  </si>
+  <si>
+    <t>LeaveRequest_6</t>
+  </si>
+  <si>
+    <t>LeaveRequest_7</t>
+  </si>
+  <si>
+    <t>LeaveRequest_8</t>
+  </si>
+  <si>
+    <t>有事</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-08T09:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-08T12:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-08T13:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-08T18:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-09T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-09T19:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T11:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-04T18:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-04T19:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T13:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T18:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-03T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-04T19:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-07T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-07T19:30:00+08:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,7 +317,7 @@
       <sz val="12"/>
       <color rgb="FF505050"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,13 +327,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -278,13 +368,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -630,19 +723,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -667,90 +760,90 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -759,50 +852,210 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -814,253 +1067,387 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
+      <c r="E15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/LeaveRequest.xlsx
+++ b/sources/case/LeaveRequest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\丹\考勤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="83">
   <si>
     <t>API</t>
   </si>
@@ -85,9 +85,6 @@
     <t>事假</t>
   </si>
   <si>
-    <t>2017-10-06T17:30:00+08:00</t>
-  </si>
-  <si>
     <t>approval_create</t>
   </si>
   <si>
@@ -118,23 +115,13 @@
     <t>LeaveRequest_07</t>
   </si>
   <si>
-    <t>2017-10-12T09:30:00+08:00</t>
-  </si>
-  <si>
     <t>请假时间等于60分钟</t>
-  </si>
-  <si>
-    <t>2017-10-12T10:30:00+08:00</t>
   </si>
   <si>
     <t>请假时间小于60分钟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2017-10-06T18:29:00+08:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>请假时间大于60分钟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -175,22 +162,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2017-10-12T10:31:00+08:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-12T10:00:00+08:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-13T10:00:00+08:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-22T10:00:00+08:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>请假时间大于60分钟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -199,10 +170,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2017-10-12T12:30:00+08:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-02-12T10:00:00+08:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -246,52 +213,84 @@
     <t>有事</t>
   </si>
   <si>
+    <t>{Date.LastMonth}-08T12:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-08T13:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-08T18:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-09T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-09T19:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T11:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-04T18:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-04T19:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T13:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-02T18:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-03T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-04T19:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-07T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-07T19:30:00+08:00</t>
+  </si>
+  <si>
     <t>{Date.LastMonth}-08T09:30:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-08T12:30:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-08T13:30:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-08T18:30:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-09T10:00:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-09T19:00:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-02T10:00:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-02T11:00:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-04T18:00:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-04T19:00:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-02T13:00:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-02T18:00:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-03T10:00:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-04T19:30:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-07T10:00:00+08:00</t>
-  </si>
-  <si>
-    <t>{Date.LastMonth}-07T19:30:00+08:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-12T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-12T12:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-13T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-22T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-06T17:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-06T18:29:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-12T09:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-12T10:30:00+08:00</t>
+  </si>
+  <si>
+    <t>{Date.LastMonth}-12T10:31:00+08:00</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -723,10 +722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -734,11 +733,11 @@
     <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -757,305 +756,308 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1070,16 +1072,17 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F16"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1087,10 +1090,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -1110,344 +1113,344 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/LeaveRequest.xlsx
+++ b/sources/case/LeaveRequest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="82">
   <si>
     <t>API</t>
   </si>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018-02-12T10:00:00+08:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>考勤需要</t>
   </si>
   <si>
@@ -289,15 +285,15 @@
     <t>{Date.LastMonth}-12T10:31:00+08:00</t>
   </si>
   <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>{Date.Month}-12T10:00:00+08:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,15 +323,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -367,16 +372,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -722,342 +731,340 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
+      <c r="F16" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1072,385 +1079,386 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="38.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" t="s">
-        <v>56</v>
+      <c r="G16" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
